--- a/src/Monster.xlsx
+++ b/src/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>optional</t>
   </si>
@@ -23,6 +23,9 @@
     <t>repeated</t>
   </si>
   <si>
+    <t>map</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
@@ -35,6 +38,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>int32,int32</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -59,6 +65,9 @@
     <t>IsBoss</t>
   </si>
   <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>怪物名字</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
     <t>是否boss</t>
   </si>
   <si>
+    <t>携带道具</t>
+  </si>
+  <si>
     <t>cs</t>
   </si>
   <si>
@@ -92,52 +104,88 @@
     <t>100;101</t>
   </si>
   <si>
+    <t>10001-1;10002-2</t>
+  </si>
+  <si>
     <t>怪物2</t>
   </si>
   <si>
     <t>110;111</t>
   </si>
   <si>
+    <t>10001-1;10002-3</t>
+  </si>
+  <si>
     <t>怪物3</t>
   </si>
   <si>
     <t>120;121</t>
   </si>
   <si>
+    <t>10001-1;10002-4</t>
+  </si>
+  <si>
     <t>怪物4</t>
   </si>
   <si>
     <t>130;131</t>
   </si>
   <si>
+    <t>10001-1;10002-5</t>
+  </si>
+  <si>
     <t>怪物5</t>
   </si>
   <si>
     <t>140;141</t>
   </si>
   <si>
+    <t>10001-1;10002-6</t>
+  </si>
+  <si>
     <t>怪物6</t>
   </si>
   <si>
     <t>150;151</t>
   </si>
   <si>
+    <t>10001-1;10002-7</t>
+  </si>
+  <si>
     <t>怪物7</t>
   </si>
   <si>
+    <t>10002-10</t>
+  </si>
+  <si>
     <t>怪物8</t>
   </si>
   <si>
+    <t>10002-11</t>
+  </si>
+  <si>
     <t>怪物9</t>
   </si>
   <si>
+    <t>10002-12</t>
+  </si>
+  <si>
     <t>怪物10</t>
   </si>
   <si>
+    <t>10002-13</t>
+  </si>
+  <si>
     <t>怪物11</t>
   </si>
   <si>
+    <t>10002-14</t>
+  </si>
+  <si>
     <t>怪物12</t>
+  </si>
+  <si>
+    <t>10002-15</t>
   </si>
 </sst>
 </file>
@@ -145,9 +193,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -165,8 +213,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,16 +288,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,105 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -330,187 +378,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +591,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,34 +599,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,15 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -636,6 +649,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,7 +704,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,124 +713,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,18 +1207,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="17.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1195,117 +1245,132 @@
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>100</v>
@@ -1320,18 +1385,21 @@
         <v>100</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>10002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>200</v>
@@ -1346,18 +1414,21 @@
         <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>10003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
         <v>300</v>
@@ -1372,18 +1443,21 @@
         <v>120</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>10004</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
         <v>400</v>
@@ -1398,18 +1472,21 @@
         <v>130</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>10005</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>500</v>
@@ -1424,18 +1501,21 @@
         <v>140</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10006</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1">
         <v>600</v>
@@ -1450,18 +1530,21 @@
         <v>150</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10007</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
         <v>700</v>
@@ -1481,13 +1564,16 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>10008</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <v>800</v>
@@ -1507,13 +1593,16 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>10009</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1">
         <v>900</v>
@@ -1533,13 +1622,16 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>10010</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1">
         <v>1000</v>
@@ -1559,13 +1651,16 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>10011</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1">
         <v>1100</v>
@@ -1585,13 +1680,16 @@
       <c r="H16" s="1">
         <v>1</v>
       </c>
+      <c r="I16" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>10012</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1">
         <v>1200</v>
@@ -1610,85 +1708,98 @@
       </c>
       <c r="H17" s="1">
         <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="0" priority="19" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="21" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="0" priority="16" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="18" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="0" priority="11" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="cellIs" dxfId="0" priority="10" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
     <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
+  <conditionalFormatting sqref="F1">
     <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
+  <conditionalFormatting sqref="H1">
     <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
+  <conditionalFormatting sqref="I1">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="0" priority="20" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="22" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="0" priority="17" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="0" priority="16" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="0" priority="15" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
+  <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" dxfId="0" priority="14" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" dxfId="0" priority="13" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="11" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="H4">
     <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
+  <conditionalFormatting sqref="I4">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
